--- a/1_epa3trimestre/output/ocupados.xlsx
+++ b/1_epa3trimestre/output/ocupados.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
   <si>
     <t xml:space="preserve">ocupados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indefinido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal</t>
   </si>
   <si>
     <t xml:space="preserve">2005T1</t>
@@ -578,597 +584,1047 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>18.7360667399997</v>
+        <v>18736066.7399997</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.3582548699999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.85307416999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>19.1605806900004</v>
+        <v>19160580.6900004</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.45753451</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.23220373999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.4220875000001</v>
+        <v>19422087.5000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.46717526</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.50212789000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>19.5092152300005</v>
+        <v>19509215.2300005</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.6137300600001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.41150189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5784399899994</v>
+        <v>19578439.9899994</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.72668481</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.34181557999997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8915975699997</v>
+        <v>19891597.5699998</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.70589549</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.59427733999997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0909570900001</v>
+        <v>20090957.0900001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.83171856</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.71699062000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1953918400002</v>
+        <v>20195391.8400002</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.0369055100001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.60802740999994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>20.26752467</v>
+        <v>20267524.67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.3861070299998</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.31516718000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5809438699994</v>
+        <v>20580943.8699994</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.5908379899999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.39056290000005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7533940100002</v>
+        <v>20753394.0100002</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.6524267199998</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.44220612000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7178889199995</v>
+        <v>20717888.9199995</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.8262980300002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.26866368000007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6199526199997</v>
+        <v>20619952.6199997</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.9066510000002</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.10341247999997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>20.64694803</v>
+        <v>20646948.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.0503643900002</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.98717068999997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5564450000004</v>
+        <v>20556445.0000004</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.9546162100001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.96547920000005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0552818900001</v>
+        <v>20055281.8900001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.90742122</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.56981367999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>19.2844421600004</v>
+        <v>19284442.1600004</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.9811835600001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.03185864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>19.15424632</v>
+        <v>19154246.32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.9366960700002</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.98644606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>19.0984366599995</v>
+        <v>19098436.6599994</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.7903466899998</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.07341207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>18.8904292200001</v>
+        <v>18890429.2200001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.80267326</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.92190801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>18.6528535699997</v>
+        <v>18652853.5699997</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.73628818</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.75331442999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>18.7511065499999</v>
+        <v>18751106.5499999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.7597165099999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.86015070999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>18.8190055199999</v>
+        <v>18819005.5199999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.72406031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.98105101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>18.6749207799998</v>
+        <v>18674920.7799998</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.7192699400001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.83543537000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>18.4261572800002</v>
+        <v>18426157.2800002</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.59309252</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.77431266999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>18.6219640000003</v>
+        <v>18621964.0000003</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.6346581099999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.94487947000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>18.484476</v>
+        <v>18484476</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.47808678</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.00124410999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>18.1530291899999</v>
+        <v>18153029.1899999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.39364475</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.75688680000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>17.76510747</v>
+        <v>17765107.47</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.2604756899997</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.46324218999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>17.7584896600002</v>
+        <v>17758489.6600002</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11.2718338900002</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.44851050000003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>17.6677005099998</v>
+        <v>17667700.5099998</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11.08678105</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.47408124000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>17.33936172</v>
+        <v>17339361.72</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.0287145900002</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.25995386000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>17.03018834</v>
+        <v>17030188.34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.91759493</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.06938772999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>17.16056492</v>
+        <v>17160564.92</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10.85116587</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.22101511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>17.2300495900001</v>
+        <v>17230049.5900001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.72651732</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.39733494999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>17.1352266499999</v>
+        <v>17135226.6499999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10.75918055</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.33425253000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>16.9505960799999</v>
+        <v>16950596.0799999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.7076033299999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.22186419000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>17.3530124399999</v>
+        <v>17353012.4399999</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10.88778871</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.42967139999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>17.5040049400001</v>
+        <v>17504004.9400001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.8610795600001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.55206373000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>17.5690807600003</v>
+        <v>17569080.7600003</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10.97198093</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.51110817</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>17.4547873599998</v>
+        <v>17454787.3599998</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10.99726358</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.39662769000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>17.8665381</v>
+        <v>17866538.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.0580418900001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.70423943999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>18.04870587</v>
+        <v>18048705.87</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11.0391901200001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.90974239000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>18.0941595</v>
+        <v>18094159.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.1425977200001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.84619004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>18.0296056500002</v>
+        <v>18029605.6500002</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.1949485800001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.74019279999997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>18.3009744299997</v>
+        <v>18300974.4299997</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.2813478800002</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.90644564999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>18.5275234499999</v>
+        <v>18527523.4499999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11.2522805300001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.15232900999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>18.5080945099996</v>
+        <v>18508094.5099996</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.3124795799998</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.07293039</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>18.4382647999998</v>
+        <v>18438264.7999998</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11.3905001599999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.95028194</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>18.8133111600004</v>
+        <v>18813311.1600004</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11.48411214</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.20613965000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>19.0492133099998</v>
+        <v>19049213.3099998</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11.5515972000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.35505494</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>18.9983527699999</v>
+        <v>18998352.7699999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.670391</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.25216348000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>18.8742052100001</v>
+        <v>18874205.2100001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11.6689521399998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.12329227000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>19.3440662999999</v>
+        <v>19344066.2999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>11.9003185</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.35697872999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>19.52798025</v>
+        <v>19527980.25</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.92565183</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.50793431</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>19.5645531900001</v>
+        <v>19564553.1900001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.03411616</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.41947422000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>19.4711316599998</v>
+        <v>19471131.6599998</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12.1240286599998</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.2337204</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>19.8049096000001</v>
+        <v>19804909.6000001</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.2884895200001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.39979277</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>19.87432349</v>
+        <v>19874323.49</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12.3135722000002</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.47640772000002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>19.96688392</v>
+        <v>19966883.92</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.4482885099999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.39785048999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>19.6812646199999</v>
+        <v>19681264.6199999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12.41754998</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.14257591000004</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>18.6072201899999</v>
+        <v>18607220.1899999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12.0561690599999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.47068019999998</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>19.1768693600001</v>
+        <v>19176869.3600001</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12.2144901799998</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.89355843000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>19.34428701</v>
+        <v>19344287.01</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.2407917199999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.00072833999998</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>19.2067677700001</v>
+        <v>19206767.7700001</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.27212</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.83213444999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>19.6716555100001</v>
+        <v>19671655.5100001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.3702278700003</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.13718186999998</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>20.0310006100001</v>
+        <v>20031000.6100001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.5152112299999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.40133944</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>20.1849473799999</v>
+        <v>20184947.3799999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.66577452</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.30846636999998</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>20.0847263900004</v>
+        <v>20084726.3900004</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.82984399</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.09864685999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>20.4680252099997</v>
+        <v>20468025.2099997</v>
+      </c>
+      <c r="C71" t="n">
+        <v>13.4465445500001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.85738297000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>20.5457250899997</v>
+        <v>20545725.0899997</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13.8907604199999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.51244274</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>20.46385591</v>
+        <v>20463855.91</v>
+      </c>
+      <c r="C73" t="n">
+        <v>14.2568253600001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.11468409</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>20.4527576199999</v>
+        <v>20452757.6199999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>14.35060897</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.99765796</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>21.05670663</v>
+        <v>21056706.63</v>
+      </c>
+      <c r="C75" t="n">
+        <v>14.7606774199999</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.09304420999999</v>
       </c>
     </row>
   </sheetData>

--- a/1_epa3trimestre/output/ocupados.xlsx
+++ b/1_epa3trimestre/output/ocupados.xlsx
@@ -1,273 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet 1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>ocupados</t>
-  </si>
-  <si>
-    <t>Indefinido</t>
-  </si>
-  <si>
-    <t>Temporal</t>
-  </si>
-  <si>
-    <t>2005T1</t>
-  </si>
-  <si>
-    <t>2005T2</t>
-  </si>
-  <si>
-    <t>2005T3</t>
-  </si>
-  <si>
-    <t>2005T4</t>
-  </si>
-  <si>
-    <t>2006T1</t>
-  </si>
-  <si>
-    <t>2006T2</t>
-  </si>
-  <si>
-    <t>2006T3</t>
-  </si>
-  <si>
-    <t>2006T4</t>
-  </si>
-  <si>
-    <t>2007T1</t>
-  </si>
-  <si>
-    <t>2007T2</t>
-  </si>
-  <si>
-    <t>2007T3</t>
-  </si>
-  <si>
-    <t>2007T4</t>
-  </si>
-  <si>
-    <t>2008T1</t>
-  </si>
-  <si>
-    <t>2008T2</t>
-  </si>
-  <si>
-    <t>2008T3</t>
-  </si>
-  <si>
-    <t>2008T4</t>
-  </si>
-  <si>
-    <t>2009T1</t>
-  </si>
-  <si>
-    <t>2009T2</t>
-  </si>
-  <si>
-    <t>2009T3</t>
-  </si>
-  <si>
-    <t>2009T4</t>
-  </si>
-  <si>
-    <t>2010T1</t>
-  </si>
-  <si>
-    <t>2010T2</t>
-  </si>
-  <si>
-    <t>2010T3</t>
-  </si>
-  <si>
-    <t>2010T4</t>
-  </si>
-  <si>
-    <t>2011T1</t>
-  </si>
-  <si>
-    <t>2011T2</t>
-  </si>
-  <si>
-    <t>2011T3</t>
-  </si>
-  <si>
-    <t>2011T4</t>
-  </si>
-  <si>
-    <t>2012T1</t>
-  </si>
-  <si>
-    <t>2012T2</t>
-  </si>
-  <si>
-    <t>2012T3</t>
-  </si>
-  <si>
-    <t>2012T4</t>
-  </si>
-  <si>
-    <t>2013T1</t>
-  </si>
-  <si>
-    <t>2013T2</t>
-  </si>
-  <si>
-    <t>2013T3</t>
-  </si>
-  <si>
-    <t>2013T4</t>
-  </si>
-  <si>
-    <t>2014T1</t>
-  </si>
-  <si>
-    <t>2014T2</t>
-  </si>
-  <si>
-    <t>2014T3</t>
-  </si>
-  <si>
-    <t>2014T4</t>
-  </si>
-  <si>
-    <t>2015T1</t>
-  </si>
-  <si>
-    <t>2015T2</t>
-  </si>
-  <si>
-    <t>2015T3</t>
-  </si>
-  <si>
-    <t>2015T4</t>
-  </si>
-  <si>
-    <t>2016T1</t>
-  </si>
-  <si>
-    <t>2016T2</t>
-  </si>
-  <si>
-    <t>2016T3</t>
-  </si>
-  <si>
-    <t>2016T4</t>
-  </si>
-  <si>
-    <t>2017T1</t>
-  </si>
-  <si>
-    <t>2017T2</t>
-  </si>
-  <si>
-    <t>2017T3</t>
-  </si>
-  <si>
-    <t>2017T4</t>
-  </si>
-  <si>
-    <t>2018T1</t>
-  </si>
-  <si>
-    <t>2018T2</t>
-  </si>
-  <si>
-    <t>2018T3</t>
-  </si>
-  <si>
-    <t>2018T4</t>
-  </si>
-  <si>
-    <t>2019T1</t>
-  </si>
-  <si>
-    <t>2019T2</t>
-  </si>
-  <si>
-    <t>2019T3</t>
-  </si>
-  <si>
-    <t>2019T4</t>
-  </si>
-  <si>
-    <t>2020T1</t>
-  </si>
-  <si>
-    <t>2020T2</t>
-  </si>
-  <si>
-    <t>2020T3</t>
-  </si>
-  <si>
-    <t>2020T4</t>
-  </si>
-  <si>
-    <t>2021T1</t>
-  </si>
-  <si>
-    <t>2021T2</t>
-  </si>
-  <si>
-    <t>2021T3</t>
-  </si>
-  <si>
-    <t>2021T4</t>
-  </si>
-  <si>
-    <t>2022T1</t>
-  </si>
-  <si>
-    <t>2022T2</t>
-  </si>
-  <si>
-    <t>2022T3</t>
-  </si>
-  <si>
-    <t>2022T4</t>
-  </si>
-  <si>
-    <t>2023T1</t>
-  </si>
-  <si>
-    <t>2023T2</t>
+    <t xml:space="preserve">fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocupados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indefinido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023T2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,14 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -297,34 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -374,71 +338,63 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,53 +418,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +475,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,10 +501,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -576,7 +533,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -589,12 +546,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -612,1073 +570,1065 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.005" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" t="n">
         <v>18.7360667399997</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" t="n">
         <v>10.3582548699999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" t="n">
         <v>4.85307416999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" t="n">
         <v>19.1605806900004</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" t="n">
         <v>10.45753451</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" t="n">
         <v>5.23220373999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" t="n">
         <v>19.4220875000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" t="n">
         <v>10.46717526</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" t="n">
         <v>5.50212789000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" t="n">
         <v>19.5092152300005</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" t="n">
         <v>10.6137300600001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" t="n">
         <v>5.41150189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" t="n">
         <v>19.5784399899994</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" t="n">
         <v>10.72668481</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" t="n">
         <v>5.34181557999997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="1" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" t="n">
         <v>19.8915975699997</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" t="n">
         <v>10.70589549</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" t="n">
         <v>5.59427733999997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="1" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" t="n">
         <v>20.0909570900001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" t="n">
         <v>10.83171856</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" t="n">
         <v>5.71699062000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" t="n">
         <v>20.1953918400002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" t="n">
         <v>11.0369055100001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" t="n">
         <v>5.60802740999994</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="1" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" t="n">
         <v>20.26752467</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" t="n">
         <v>11.3861070299998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" t="n">
         <v>5.31516718000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="1" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" t="n">
         <v>20.5809438699994</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" t="n">
         <v>11.5908379899999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" t="n">
         <v>5.39056290000005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="1" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" t="n">
         <v>20.7533940100002</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" t="n">
         <v>11.6524267199998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" t="n">
         <v>5.44220612000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="1" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" t="n">
         <v>20.7178889199995</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" t="n">
         <v>11.8262980300002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" t="n">
         <v>5.26866368000007</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="1" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" t="n">
         <v>20.6199526199997</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" t="n">
         <v>11.9066510000002</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" t="n">
         <v>5.10341247999997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="1" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" t="n">
         <v>20.64694803</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" t="n">
         <v>12.0503643900002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" t="n">
         <v>4.98717068999997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="1" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" t="n">
         <v>20.5564450000004</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" t="n">
         <v>11.9546162100001</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" t="n">
         <v>4.96547920000005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="1" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" t="n">
         <v>20.0552818900001</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" t="n">
         <v>11.90742122</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" t="n">
         <v>4.56981367999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="1" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" t="n">
         <v>19.2844421600004</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" t="n">
         <v>11.9811835600001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" t="n">
         <v>4.03185864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="1" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" t="n">
         <v>19.15424632</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" t="n">
         <v>11.9366960700002</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" t="n">
         <v>3.98644606</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="1" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" t="n">
         <v>19.0984366599995</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" t="n">
         <v>11.7903466899998</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" t="n">
         <v>4.07341207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="1" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" t="n">
         <v>18.8904292200001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" t="n">
         <v>11.80267326</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" t="n">
         <v>3.92190801</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="1" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" t="n">
         <v>18.6528535699997</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" t="n">
         <v>11.73628818</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" t="n">
         <v>3.75331442999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="1" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" t="n">
         <v>18.7511065499999</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" t="n">
         <v>11.7597165099999</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" t="n">
         <v>3.86015070999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="1" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" t="n">
         <v>18.8190055199999</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" t="n">
         <v>11.72406031</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" t="n">
         <v>3.98105101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="1" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" t="n">
         <v>18.6749207799998</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" t="n">
         <v>11.7192699400001</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" t="n">
         <v>3.83543537000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="1" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" t="n">
         <v>18.4261572800002</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" t="n">
         <v>11.59309252</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" t="n">
         <v>3.77431266999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="1" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" t="n">
         <v>18.6219640000003</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" t="n">
         <v>11.6346581099999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" t="n">
         <v>3.94487947000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="1" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" t="n">
         <v>18.484476</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" t="n">
         <v>11.47808678</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" t="n">
         <v>4.00124410999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="1" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" t="n">
         <v>18.1530291899999</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" t="n">
         <v>11.39364475</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" t="n">
         <v>3.75688680000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="1" t="s">
+    <row r="30">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" t="n">
         <v>17.76510747</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" t="n">
         <v>11.2604756899997</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" t="n">
         <v>3.46324218999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="1" t="s">
+    <row r="31">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" t="n">
         <v>17.7584896600002</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" t="n">
         <v>11.2718338900002</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" t="n">
         <v>3.44851050000003</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="1" t="s">
+    <row r="32">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" t="n">
         <v>17.6677005099998</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" t="n">
         <v>11.08678105</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" t="n">
         <v>3.47408124000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="1" t="s">
+    <row r="33">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" t="n">
         <v>17.33936172</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" t="n">
         <v>11.0287145900002</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" t="n">
         <v>3.25995386000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="1" t="s">
+    <row r="34">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" t="n">
         <v>17.03018834</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" t="n">
         <v>10.91759493</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" t="n">
         <v>3.06938772999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="1" t="s">
+    <row r="35">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" t="n">
         <v>17.16056492</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" t="n">
         <v>10.85116587</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" t="n">
         <v>3.22101511</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="1" t="s">
+    <row r="36">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" t="n">
         <v>17.2300495900001</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" t="n">
         <v>10.72651732</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" t="n">
         <v>3.39733494999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="1" t="s">
+    <row r="37">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" t="n">
         <v>17.1352266499999</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" t="n">
         <v>10.75918055</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" t="n">
         <v>3.33425253000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="1" t="s">
+    <row r="38">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" t="n">
         <v>16.9505960799999</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" t="n">
         <v>10.7076033299999</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" t="n">
         <v>3.22186419000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="1" t="s">
+    <row r="39">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" t="n">
         <v>17.3530124399999</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" t="n">
         <v>10.88778871</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" t="n">
         <v>3.42967139999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="1" t="s">
+    <row r="40">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" t="n">
         <v>17.5040049400001</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" t="n">
         <v>10.8610795600001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" t="n">
         <v>3.55206373000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="1" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" t="n">
         <v>17.5690807600003</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" t="n">
         <v>10.97198093</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" t="n">
         <v>3.51110817</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="1" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" t="n">
         <v>17.4547873599998</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" t="n">
         <v>10.99726358</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" t="n">
         <v>3.39662769000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="1" t="s">
+    <row r="43">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" t="n">
         <v>17.8665381</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" t="n">
         <v>11.0580418900001</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" t="n">
         <v>3.70423943999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="1" t="s">
+    <row r="44">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" t="n">
         <v>18.04870587</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" t="n">
         <v>11.0391901200001</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" t="n">
         <v>3.90974239000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="1" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" t="n">
         <v>18.0941595</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" t="n">
         <v>11.1425977200001</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" t="n">
         <v>3.84619004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="1" t="s">
+    <row r="46">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" t="n">
         <v>18.0296056500002</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" t="n">
         <v>11.1949485800001</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" t="n">
         <v>3.74019279999997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="1" t="s">
+    <row r="47">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" t="n">
         <v>18.3009744299997</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" t="n">
         <v>11.2813478800002</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" t="n">
         <v>3.90644564999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="1" t="s">
+    <row r="48">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" t="n">
         <v>18.5275234499999</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" t="n">
         <v>11.2522805300001</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" t="n">
         <v>4.15232900999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="1" t="s">
+    <row r="49">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" t="n">
         <v>18.5080945099996</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" t="n">
         <v>11.3124795799998</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" t="n">
         <v>4.07293039</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="1" t="s">
+    <row r="50">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" t="n">
         <v>18.4382647999998</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" t="n">
         <v>11.3905001599999</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" t="n">
         <v>3.95028194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="1" t="s">
+    <row r="51">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" t="n">
         <v>18.8133111600004</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" t="n">
         <v>11.48411214</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" t="n">
         <v>4.20613965000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="1" t="s">
+    <row r="52">
+      <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" t="n">
         <v>19.0492133099998</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" t="n">
         <v>11.5515972000001</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" t="n">
         <v>4.35505494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="1" t="s">
+    <row r="53">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" t="n">
         <v>18.9983527699999</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" t="n">
         <v>11.670391</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" t="n">
         <v>4.25216348000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="1" t="s">
+    <row r="54">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" t="n">
         <v>18.8742052100001</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" t="n">
         <v>11.6689521399998</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" t="n">
         <v>4.12329227000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="1" t="s">
+    <row r="55">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" t="n">
         <v>19.3440662999999</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" t="n">
         <v>11.9003185</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" t="n">
         <v>4.35697872999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="1" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" t="n">
         <v>19.52798025</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" t="n">
         <v>11.92565183</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" t="n">
         <v>4.50793431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="1" t="s">
+    <row r="57">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" t="n">
         <v>19.5645531900001</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" t="n">
         <v>12.03411616</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" t="n">
         <v>4.41947422000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="1" t="s">
+    <row r="58">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" t="n">
         <v>19.4711316599998</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" t="n">
         <v>12.1240286599998</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" t="n">
         <v>4.2337204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="1" t="s">
+    <row r="59">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" t="n">
         <v>19.8049096000001</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" t="n">
         <v>12.2884895200001</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" t="n">
         <v>4.39979277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="1" t="s">
+    <row r="60">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" t="n">
         <v>19.87432349</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" t="n">
         <v>12.3135722000002</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" t="n">
         <v>4.47640772000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="1" t="s">
+    <row r="61">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" t="n">
         <v>19.96688392</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" t="n">
         <v>12.4482885099999</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" t="n">
         <v>4.39785048999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="1" t="s">
+    <row r="62">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" t="n">
         <v>19.6812646199999</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" t="n">
         <v>12.41754998</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" t="n">
         <v>4.14257591000004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="1" t="s">
+    <row r="63">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" t="n">
         <v>18.6072201899999</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" t="n">
         <v>12.0561690599999</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" t="n">
         <v>3.47068019999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="1" t="s">
+    <row r="64">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" t="n">
         <v>19.1768693600001</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" t="n">
         <v>12.2144901799998</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" t="n">
         <v>3.89355843000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="1" t="s">
+    <row r="65">
+      <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" t="n">
         <v>19.34428701</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" t="n">
         <v>12.2407917199999</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" t="n">
         <v>4.00072833999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="1" t="s">
+    <row r="66">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" t="n">
         <v>19.2067677700001</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" t="n">
         <v>12.27212</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" t="n">
         <v>3.83213444999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="1" t="s">
+    <row r="67">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" t="n">
         <v>19.6716555100001</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" t="n">
         <v>12.3702278700003</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" t="n">
         <v>4.13718186999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="1" t="s">
+    <row r="68">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" t="n">
         <v>20.0310006100001</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" t="n">
         <v>12.5152112299999</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" t="n">
         <v>4.40133944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="1" t="s">
+    <row r="69">
+      <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" t="n">
         <v>20.1849473799999</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" t="n">
         <v>12.66577452</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" t="n">
         <v>4.30846636999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="1" t="s">
+    <row r="70">
+      <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" t="n">
         <v>20.0847263900004</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" t="n">
         <v>12.82984399</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" t="n">
         <v>4.09864685999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="1" t="s">
+    <row r="71">
+      <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" t="n">
         <v>20.4680252099997</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" t="n">
         <v>13.4465445500001</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" t="n">
         <v>3.85738297000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="1" t="s">
+    <row r="72">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" t="n">
         <v>20.5457250899997</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" t="n">
         <v>13.8907604199999</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" t="n">
         <v>3.51244274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="1" t="s">
+    <row r="73">
+      <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" t="n">
         <v>20.46385591</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" t="n">
         <v>14.2568253600001</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" t="n">
         <v>3.11468409</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="1" t="s">
+    <row r="74">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" t="n">
         <v>20.4527576199999</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" t="n">
         <v>14.35060897</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" t="n">
         <v>2.99765796</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="1" t="s">
+    <row r="75">
+      <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" t="n">
         <v>21.05670663</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" t="n">
         <v>14.7606774199999</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" t="n">
         <v>3.09304420999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/1_epa3trimestre/output/ocupados.xlsx
+++ b/1_epa3trimestre/output/ocupados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023T3</t>
   </si>
 </sst>
 </file>
@@ -1627,6 +1630,20 @@
         <v>3.09304420999999</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="n">
+        <v>21.2658536600001</v>
+      </c>
+      <c r="C76" t="n">
+        <v>14.99277215</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.12691060000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
